--- a/ExcelExercise/solutions/ExcelExercise2023 (solution).xlsx
+++ b/ExcelExercise/solutions/ExcelExercise2023 (solution).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome Kris Semos\Documents\SOIT\Sem1\Office Applications\excel exercises\wk14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9200F041-BD97-4EC0-96E4-98DC1E846609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C737796B-F714-49FE-9AF5-A2A5E343B845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PayRoll" sheetId="2" r:id="rId1"/>
     <sheet name="Grading" sheetId="3" r:id="rId2"/>
-    <sheet name="Branded_Item" sheetId="7" r:id="rId3"/>
+    <sheet name="Destination_Sales" sheetId="8" r:id="rId3"/>
+    <sheet name="Branded_Item" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t>Weekly Payroll</t>
   </si>
@@ -317,6 +318,45 @@
   </si>
   <si>
     <t>2. Add up the total percentage scored by for each student using either formulae or function (=cell+cell+cell OR = sum(cell,cell,cell)</t>
+  </si>
+  <si>
+    <t>3. Format the cells under the Price and Total Order columns to PNG Kina (K).</t>
+  </si>
+  <si>
+    <t>2. If the total price exceeds K1500, award bonus (Yes/No).</t>
+  </si>
+  <si>
+    <t>1. Find the total order for the tickets to each destination.</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Order Total</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>Destination</t>
   </si>
 </sst>
 </file>
@@ -326,12 +366,19 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="[$PGK]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$PGK]\ #,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -441,6 +488,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -486,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -618,19 +673,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -638,123 +721,132 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,14 +856,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1111,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1131,16 +1223,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1247,22 +1339,22 @@
       <c r="C9" s="1">
         <v>43</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="60">
         <v>35.6</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="60">
         <f>C9*D9</f>
         <v>1530.8</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="60">
         <f>$E$5*E9</f>
         <v>153.08000000000001</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="61">
         <f>E9*$E$6</f>
         <v>122.464</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="60">
         <f>E9-(F9+G9)</f>
         <v>1255.2559999999999</v>
       </c>
@@ -1278,22 +1370,22 @@
       <c r="C10" s="1">
         <v>28</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="60">
         <v>12.5</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="60">
         <f t="shared" ref="E10:E14" si="0">C10*D10</f>
         <v>350</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="60">
         <f t="shared" ref="F10:F14" si="1">$E$5*E10</f>
         <v>35</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="61">
         <f t="shared" ref="G10:G14" si="2">E10*$E$6</f>
         <v>28</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="60">
         <f t="shared" ref="H10:H14" si="3">E10-(F10+G10)</f>
         <v>287</v>
       </c>
@@ -1309,22 +1401,22 @@
       <c r="C11" s="1">
         <v>35</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="62">
         <v>32.1</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="60">
         <f t="shared" si="0"/>
         <v>1123.5</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="60">
         <f t="shared" si="1"/>
         <v>112.35000000000001</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="61">
         <f t="shared" si="2"/>
         <v>89.88</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="60">
         <f t="shared" si="3"/>
         <v>921.27</v>
       </c>
@@ -1340,22 +1432,22 @@
       <c r="C12" s="1">
         <v>15.5</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="60">
         <v>32.4</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="60">
         <f t="shared" si="0"/>
         <v>502.2</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="60">
         <f t="shared" si="1"/>
         <v>50.22</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="61">
         <f t="shared" si="2"/>
         <v>40.176000000000002</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="60">
         <f t="shared" si="3"/>
         <v>411.80399999999997</v>
       </c>
@@ -1371,22 +1463,22 @@
       <c r="C13" s="1">
         <v>22.5</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="60">
         <v>10.25</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="60">
         <f t="shared" si="0"/>
         <v>230.625</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="60">
         <f t="shared" si="1"/>
         <v>23.0625</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="61">
         <f t="shared" si="2"/>
         <v>18.45</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="60">
         <f t="shared" si="3"/>
         <v>189.11250000000001</v>
       </c>
@@ -1402,22 +1494,22 @@
       <c r="C14" s="5">
         <v>40</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="60">
         <v>10.25</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="60">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="60">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="61">
         <f t="shared" si="2"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="60">
         <f t="shared" si="3"/>
         <v>336.2</v>
       </c>
@@ -1440,19 +1532,19 @@
       <c r="D16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="60">
         <f>SUM(E9:E14)</f>
         <v>4147.125</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="60">
         <f t="shared" ref="F16:H16" si="4">SUM(F9:F14)</f>
         <v>414.71249999999998</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="60">
         <f t="shared" si="4"/>
         <v>331.77</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="60">
         <f t="shared" si="4"/>
         <v>3400.6424999999999</v>
       </c>
@@ -1532,7 +1624,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1543,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -1562,51 +1654,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="71"/>
+      <c r="F4" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="65" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="64" t="s">
+      <c r="K4" s="73"/>
+      <c r="L4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="64"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="46" t="s">
@@ -2452,7 +2544,7 @@
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34">
-        <f t="shared" ref="E21:L21" si="14">MODE(F7:F16)</f>
+        <f t="shared" ref="F21:L21" si="14">MODE(F7:F16)</f>
         <v>35</v>
       </c>
       <c r="G21" s="34"/>
@@ -2535,7 +2627,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="67" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2550,17 +2642,17 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="67" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="67" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="67" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2574,13 +2666,13 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O7:O16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2590,11 +2682,288 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE8EF4A-23D8-4677-9DEB-83433C2DCD0C}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="34" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="76">
+        <v>500</v>
+      </c>
+      <c r="C2" s="75">
+        <v>1</v>
+      </c>
+      <c r="D2" s="76">
+        <f>B2*C2</f>
+        <v>500</v>
+      </c>
+      <c r="E2" s="75" t="str">
+        <f>IF(D2&gt;1500,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="76">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="75">
+        <v>1</v>
+      </c>
+      <c r="D3" s="76">
+        <f>B3*C3</f>
+        <v>1500</v>
+      </c>
+      <c r="E3" s="75" t="str">
+        <f>IF(D3&gt;1500,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="76">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="75">
+        <v>1</v>
+      </c>
+      <c r="D4" s="76">
+        <f>B4*C4</f>
+        <v>1000</v>
+      </c>
+      <c r="E4" s="75" t="str">
+        <f>IF(D4&gt;1500,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="76">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="75">
+        <v>2</v>
+      </c>
+      <c r="D5" s="76">
+        <f>B5*C5</f>
+        <v>4000</v>
+      </c>
+      <c r="E5" s="75" t="str">
+        <f>IF(D5&gt;1500,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="76">
+        <v>500</v>
+      </c>
+      <c r="C6" s="75">
+        <v>1</v>
+      </c>
+      <c r="D6" s="76">
+        <f>B6*C6</f>
+        <v>500</v>
+      </c>
+      <c r="E6" s="75" t="str">
+        <f>IF(D6&gt;1500,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="76">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="75">
+        <v>3</v>
+      </c>
+      <c r="D7" s="76">
+        <f>B7*C7</f>
+        <v>4500</v>
+      </c>
+      <c r="E7" s="75" t="str">
+        <f>IF(D7&gt;1500,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="76">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="75">
+        <v>1</v>
+      </c>
+      <c r="D8" s="76">
+        <f>B8*C8</f>
+        <v>1000</v>
+      </c>
+      <c r="E8" s="75" t="str">
+        <f>IF(D8&gt;1500,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="76">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="75">
+        <v>2</v>
+      </c>
+      <c r="D9" s="76">
+        <f>B9*C9</f>
+        <v>4000</v>
+      </c>
+      <c r="E9" s="75" t="str">
+        <f>IF(D9&gt;1500,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="82">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="81">
+        <v>1</v>
+      </c>
+      <c r="D10" s="82">
+        <f>B10*C10</f>
+        <v>1500</v>
+      </c>
+      <c r="E10" s="81" t="str">
+        <f>IF(D10&gt;1500,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="75"/>
+      <c r="B12" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="76">
+        <f>D4+D7+D8+D10</f>
+        <v>8000</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="75"/>
+      <c r="B13" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="76">
+        <f>D2+D6+D9</f>
+        <v>5000</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="75"/>
+      <c r="B14" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="76">
+        <f>D3+D5</f>
+        <v>5500</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="67"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EEA4D9-C286-4E5D-8205-6B34BD3BDDBA}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2622,7 +2991,7 @@
       <c r="B2" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="66">
         <v>30000</v>
       </c>
     </row>
@@ -2633,7 +3002,7 @@
       <c r="B3" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="66">
         <v>25000</v>
       </c>
     </row>
@@ -2644,7 +3013,7 @@
       <c r="B4" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="66">
         <v>42000</v>
       </c>
     </row>
@@ -2655,7 +3024,7 @@
       <c r="B5" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="66">
         <v>42000</v>
       </c>
     </row>
@@ -2666,7 +3035,7 @@
       <c r="B6" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="66">
         <v>35000</v>
       </c>
     </row>
@@ -2677,7 +3046,7 @@
       <c r="B7" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="66">
         <v>55000</v>
       </c>
     </row>
@@ -2688,7 +3057,7 @@
       <c r="B8" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="66">
         <v>25000</v>
       </c>
     </row>
@@ -2699,7 +3068,7 @@
       <c r="B9" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="66">
         <v>34000</v>
       </c>
     </row>
@@ -2710,7 +3079,7 @@
       <c r="B10" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="66">
         <v>32000</v>
       </c>
     </row>
@@ -2730,11 +3099,11 @@
       <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="71">
+      <c r="B14" s="74"/>
+      <c r="C14" s="64">
         <f>SUM(C2,C5,C8)</f>
         <v>97000</v>
       </c>
@@ -2742,14 +3111,14 @@
     <row r="15" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="42"/>
-      <c r="C15" s="72"/>
+      <c r="C15" s="65"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="71">
+      <c r="B16" s="74"/>
+      <c r="C16" s="64">
         <f>SUM(C3,C6,C9)</f>
         <v>94000</v>
       </c>
@@ -2757,14 +3126,14 @@
     <row r="17" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
-      <c r="C17" s="72"/>
+      <c r="C17" s="65"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="71">
+      <c r="B18" s="74"/>
+      <c r="C18" s="64">
         <f>SUM(C4,C7,C10)</f>
         <v>129000</v>
       </c>
@@ -2778,7 +3147,7 @@
       <c r="A20" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="70">
+      <c r="B20" s="63">
         <f>COUNTIF(B2:B10,"Air Conditioner")</f>
         <v>3</v>
       </c>
@@ -2788,7 +3157,7 @@
       <c r="A22" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B22" s="63">
         <f>COUNTIF(B2:B10,"Fridge")</f>
         <v>3</v>
       </c>
@@ -2800,7 +3169,7 @@
       <c r="A24" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="70">
+      <c r="B24" s="63">
         <f>COUNTIF(B2:B10,"TV")</f>
         <v>3</v>
       </c>
